--- a/数据整理/stocks/其他/KYG596691041-美团-W.xlsx
+++ b/数据整理/stocks/其他/KYG596691041-美团-W.xlsx
@@ -979,12 +979,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG596691041-美团-W.xlsx
+++ b/数据整理/stocks/其他/KYG596691041-美团-W.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,13 +1015,445 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>968029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生指数基金M类人民币（对冲）份额</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>4.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG596691041-美团-W.xlsx
+++ b/数据整理/stocks/其他/KYG596691041-美团-W.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.69</v>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1447,13 +1490,423 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>968029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生指数基金M类人民币（对冲）份额</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG596691041-美团-W.xlsx
+++ b/数据整理/stocks/其他/KYG596691041-美团-W.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,509 +453,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>968029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒生指数基金M类人民币（对冲）份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4273</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.58</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012348</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9609</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.69</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012349</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4006</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009562</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2801</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009563</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2801</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2801</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1380</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002379</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1123</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002380</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信香港中小盘股票（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1123</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005699</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信新经济灵活配置混合QDII人民币</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005700</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信新经济灵活配置混合QDII美元</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1026,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.10</t>
+          <t>33.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8651</t>
+          <t>2.4738</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1064,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.09</t>
+          <t>26.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.94</t>
+          <t>98.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7990</t>
+          <t>1.8916</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1102,26 +674,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>25.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1107</t>
+          <t>1.8773</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1140,26 +712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1995</t>
+          <t>0.2949</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1168,36 +740,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1995</t>
+          <t>0.2949</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1206,36 +778,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1995</t>
+          <t>0.2949</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1254,26 +826,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>95.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1419</t>
+          <t>0.1880</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1292,26 +864,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1330,26 +902,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1368,26 +940,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>95.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1462,26 +1034,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.34</t>
+          <t>38.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>92.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4738</t>
+          <t>2.8651</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1500,26 +1072,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.87</t>
+          <t>25.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>97.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8916</t>
+          <t>1.7990</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1538,26 +1110,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.30</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>92.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.8773</t>
+          <t>1.1107</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1576,26 +1148,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.1995</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1604,36 +1176,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.1995</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1642,36 +1214,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.1995</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1690,26 +1262,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1880</t>
+          <t>0.1419</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1728,26 +1300,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>86.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1766,26 +1338,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>86.48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1804,26 +1376,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.0455</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1837,80 +1409,508 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>968029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生指数基金M类人民币（对冲）份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005699</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新经济灵活配置混合QDII人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005700</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新经济灵活配置混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/KYG596691041-美团-W.xlsx
+++ b/数据整理/stocks/其他/KYG596691041-美团-W.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>7.58</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>6.69</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,31 +610,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+          <t>天弘恒生科技指数（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.34</t>
+          <t>39.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4738</t>
+          <t>2.9658</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -626,32 +643,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>968029</t>
+          <t>012349</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生指数基金M类人民币（对冲）份额</t>
+          <t>天弘恒生科技指数（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.87</t>
+          <t>37.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8916</t>
+          <t>2.8065</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012349</t>
+          <t>968029</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+          <t>恒生指数基金M类人民币（对冲）份额</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.30</t>
+          <t>27.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>99.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.8773</t>
+          <t>1.8177</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -702,32 +719,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.2703</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -740,32 +757,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银全球股票（QDII）美元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.2703</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -778,32 +795,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银全球股票（QDII）港币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.2703</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -826,22 +843,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1880</t>
+          <t>0.1247</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -864,26 +881,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>88.58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.0827</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -902,26 +919,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>88.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.0827</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -940,26 +957,64 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.0619</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1034,26 +1089,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.10</t>
+          <t>33.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8651</t>
+          <t>2.4738</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1072,26 +1127,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.09</t>
+          <t>26.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.94</t>
+          <t>98.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7990</t>
+          <t>1.8916</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1110,26 +1165,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>25.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1107</t>
+          <t>1.8773</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1148,26 +1203,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1995</t>
+          <t>0.2949</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1176,36 +1231,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1995</t>
+          <t>0.2949</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1214,36 +1269,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1995</t>
+          <t>0.2949</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1262,26 +1317,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>95.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1419</t>
+          <t>0.1880</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1300,26 +1355,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1338,26 +1393,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1376,26 +1431,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>95.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1404,6 +1459,442 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>968029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生指数基金M类人民币（对冲）份额</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
